--- a/需求响应/data/PowerFlow.xlsx
+++ b/需求响应/data/PowerFlow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyprog\需求响应\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F93B52-5614-43E2-A1F8-FAA3C6CD1F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEFC3E5-72A3-4FF6-AC98-11902CA90385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="4200" windowWidth="21435" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="4200" windowWidth="15660" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -396,10 +396,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
       </c>
       <c r="C2">
         <v>3.5000000000000001E-3</v>
@@ -413,10 +413,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
       </c>
       <c r="C3">
         <v>1.2999999999999999E-3</v>
@@ -430,10 +430,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
       </c>
       <c r="C4">
         <v>1.2999999999999999E-3</v>
@@ -447,10 +447,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>4</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
       </c>
       <c r="C5">
         <v>8.0000000000000004E-4</v>
@@ -464,10 +464,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>5</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
       </c>
       <c r="C6">
         <v>2.0000000000000001E-4</v>
@@ -481,10 +481,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>8.0000000000000004E-4</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -515,10 +515,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>4.0000000000000002E-4</v>

--- a/需求响应/data/PowerFlow.xlsx
+++ b/需求响应/data/PowerFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyprog\需求响应\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEFC3E5-72A3-4FF6-AC98-11902CA90385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B955905-1B21-43AE-99F6-4BA9C16F8F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="4200" windowWidth="15660" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8400" yWindow="2955" windowWidth="15660" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -413,7 +413,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>8</v>

--- a/需求响应/data/PowerFlow.xlsx
+++ b/需求响应/data/PowerFlow.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyprog\需求响应\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProg\需求响应\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B955905-1B21-43AE-99F6-4BA9C16F8F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622B42C9-508E-4EB0-97BB-86AEA4E3B8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="2955" windowWidth="15660" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6700" yWindow="6970" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,12 +372,12 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -394,7 +394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -402,16 +402,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3.5000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D2">
-        <v>4.1099999999999998E-2</v>
+        <v>1E-4</v>
       </c>
       <c r="E2">
         <v>0.69869999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -419,16 +419,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D3">
-        <v>1.5100000000000001E-2</v>
+        <v>1E-4</v>
       </c>
       <c r="E3">
         <v>0.25719999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -436,16 +436,16 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D4">
-        <v>2.1299999999999999E-2</v>
+        <v>1E-4</v>
       </c>
       <c r="E4">
         <v>0.22140000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -453,16 +453,16 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>8.0000000000000004E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D5">
-        <v>1.2800000000000001E-2</v>
+        <v>1E-4</v>
       </c>
       <c r="E5">
         <v>0.13420000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -470,16 +470,16 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D6">
-        <v>2.5999999999999999E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E6">
         <v>4.3400000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -487,16 +487,16 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>8.0000000000000004E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D7">
-        <v>1.12E-2</v>
+        <v>1E-4</v>
       </c>
       <c r="E7">
         <v>0.14760000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -504,16 +504,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>5.9999999999999995E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D8">
-        <v>9.1999999999999998E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E8">
         <v>0.113</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>4.0000000000000002E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D9">
-        <v>4.5999999999999999E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E9">
         <v>7.8E-2</v>

--- a/需求响应/data/PowerFlow.xlsx
+++ b/需求响应/data/PowerFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProg\需求响应\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622B42C9-508E-4EB0-97BB-86AEA4E3B8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF6B93B-06C3-4844-9A47-E8B84620E696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="6970" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5570" yWindow="1850" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +63,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -87,8 +94,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -372,7 +380,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -401,11 +409,11 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1E-3</v>
-      </c>
-      <c r="D2">
-        <v>1E-4</v>
+      <c r="C2" s="1">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.1099999999999998E-2</v>
       </c>
       <c r="E2">
         <v>0.69869999999999999</v>
@@ -418,11 +426,11 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1E-3</v>
-      </c>
-      <c r="D3">
-        <v>1E-4</v>
+      <c r="C3" s="1">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="E3">
         <v>0.25719999999999998</v>
@@ -435,11 +443,11 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>1E-3</v>
-      </c>
-      <c r="D4">
-        <v>1E-4</v>
+      <c r="C4" s="1">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="E4">
         <v>0.22140000000000001</v>
@@ -452,11 +460,11 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>1E-3</v>
-      </c>
-      <c r="D5">
-        <v>1E-4</v>
+      <c r="C5" s="1">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="E5">
         <v>0.13420000000000001</v>
@@ -469,11 +477,11 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>1E-3</v>
-      </c>
-      <c r="D6">
-        <v>1E-4</v>
+      <c r="C6" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="E6">
         <v>4.3400000000000001E-2</v>
@@ -486,11 +494,11 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>1E-3</v>
-      </c>
-      <c r="D7">
-        <v>1E-4</v>
+      <c r="C7" s="1">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.12E-2</v>
       </c>
       <c r="E7">
         <v>0.14760000000000001</v>
@@ -503,11 +511,11 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>1E-3</v>
-      </c>
-      <c r="D8">
-        <v>1E-4</v>
+      <c r="C8" s="1">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="E8">
         <v>0.113</v>
@@ -520,11 +528,11 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>1E-3</v>
-      </c>
-      <c r="D9">
-        <v>1E-4</v>
+      <c r="C9" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="E9">
         <v>7.8E-2</v>
